--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>747282.1545318936</v>
+        <v>743870.5505813217</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889764</v>
+        <v>335690.3293889767</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>54.80288507895745</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>88.91888512441756</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>115.5785074418532</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>85.22343841471893</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,64 +1139,64 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>263.2420339516669</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>206.9091621893709</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>144.0576027644701</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>144.138852502454</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>263.2420339516669</v>
-      </c>
-      <c r="H8" t="n">
-        <v>231.8635835046281</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>94.73676159083458</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>169.5773220302082</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>69.40990664858384</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>193.6051044699641</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>95.04536685828211</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>83.82953530753677</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>165.4718665099913</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>61.63425920309675</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>83.82953530753666</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -1819,7 +1819,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1859,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>159.5623709710786</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>111.9273983130129</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>43.60620160013897</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.5255987666</v>
       </c>
       <c r="H20" t="n">
-        <v>26.94389492651113</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.5310119231965</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>70.11928264603844</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>355.5467565582664</v>
+        <v>334.281418700535</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>146.6470461191482</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.8721928563318</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>239.6951199789832</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2646,7 +2646,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
@@ -2682,7 +2682,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>171.7498680634313</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>43.07152894338012</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.97699675700441</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>245.3649159196297</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,16 +3029,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>20.88637380904791</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>187.5777956236139</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>74.09260911231074</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,19 +3269,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>354.7618716547747</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>369.9755039560993</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210772</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>198.6452919450185</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>339.0399185806816</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>155.4526127311941</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,22 +3740,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>392.2167866975183</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>81.12200652863805</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3828,7 +3828,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G42" t="n">
         <v>136.5310119231965</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>59.66385641544548</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>131.8179123113441</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>48.37651464118736</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4110,7 +4110,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>97.58117330968081</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>18.7734042169175</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D2" t="n">
         <v>262.7299197543128</v>
@@ -4358,22 +4358,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4416,10 +4416,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>353.3011080883284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>109.8523314442283</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>109.8523314442283</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="4">
@@ -4504,16 +4504,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>325.7766548071333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>325.7766548071333</v>
+      </c>
+      <c r="D5" t="n">
+        <v>325.7766548071333</v>
+      </c>
+      <c r="E5" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C5" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D5" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4595,22 @@
         <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136.7812428759814</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>413.5372890039083</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>264.602879342657</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>105.3654243372015</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,16 +4653,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4683,13 +4683,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>512.7568786610034</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y6" t="n">
-        <v>304.9965798960495</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="7">
@@ -4750,10 +4750,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1052.968135806668</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="C8" t="n">
-        <v>1052.968135806668</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="D8" t="n">
-        <v>1052.968135806668</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="E8" t="n">
-        <v>787.0670914110444</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="F8" t="n">
-        <v>521.1660470154213</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="G8" t="n">
-        <v>255.2650026197982</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613335</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I8" t="n">
         <v>21.05936271613335</v>
@@ -4826,28 +4826,28 @@
         <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806668</v>
+        <v>761.8606052340169</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806668</v>
+        <v>761.8606052340169</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806668</v>
+        <v>761.8606052340169</v>
       </c>
       <c r="X8" t="n">
-        <v>1052.968135806668</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="Y8" t="n">
-        <v>1052.968135806668</v>
+        <v>495.9595608383938</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>616.5704928026398</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="C9" t="n">
-        <v>442.1174635215128</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D9" t="n">
-        <v>293.1830538602616</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E9" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F9" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G9" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H9" t="n">
         <v>21.05936271613335</v>
@@ -4881,52 +4881,52 @@
         <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613335</v>
+        <v>24.95018035683217</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613335</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109959</v>
+        <v>398.824578434775</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231461</v>
+        <v>398.824578434775</v>
       </c>
       <c r="N9" t="n">
-        <v>524.9036321565288</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O9" t="n">
-        <v>785.316696249021</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271197</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q9" t="n">
         <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="S9" t="n">
-        <v>880.4795283993085</v>
+        <v>782.4144152406848</v>
       </c>
       <c r="T9" t="n">
-        <v>784.7858298227079</v>
+        <v>782.4144152406848</v>
       </c>
       <c r="U9" t="n">
-        <v>784.7858298227079</v>
+        <v>782.4144152406848</v>
       </c>
       <c r="V9" t="n">
-        <v>784.7858298227079</v>
+        <v>611.1241909677472</v>
       </c>
       <c r="W9" t="n">
-        <v>784.7858298227079</v>
+        <v>611.1241909677472</v>
       </c>
       <c r="X9" t="n">
-        <v>784.7858298227079</v>
+        <v>403.2726907622143</v>
       </c>
       <c r="Y9" t="n">
-        <v>784.7858298227079</v>
+        <v>195.5123919972604</v>
       </c>
     </row>
     <row r="10">
@@ -4954,10 +4954,10 @@
         <v>182.5089274706538</v>
       </c>
       <c r="H10" t="n">
-        <v>112.3979106539025</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I10" t="n">
-        <v>112.3979106539025</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
         <v>21.05936271613335</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1404.543549400789</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C11" t="n">
-        <v>1404.543549400789</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D11" t="n">
-        <v>1046.277850794039</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>660.4895981957943</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>249.5036934061868</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224076</v>
@@ -5051,40 +5051,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2601.143669949251</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990286</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="U11" t="n">
-        <v>2478.514423990286</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="V11" t="n">
-        <v>2147.451536646715</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W11" t="n">
-        <v>1794.682881376601</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X11" t="n">
-        <v>1794.682881376601</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y11" t="n">
-        <v>1404.543549400789</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
@@ -5163,7 +5163,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5206,43 +5206,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>643.4526859159931</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>429.1642627341558</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1150.78176403888</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C14" t="n">
-        <v>1150.78176403888</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D14" t="n">
-        <v>792.5160654321296</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E14" t="n">
-        <v>625.3727659270879</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>1540.921096014692</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="X14" t="n">
-        <v>1540.921096014692</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y14" t="n">
-        <v>1150.78176403888</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5455,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>643.4526859159931</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>429.1642627341558</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>201.8560754027576</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>882.8926947117852</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117852</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5516,16 +5516,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5540,25 +5540,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2584.09111292427</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2584.09111292427</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2330.329327562361</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1999.266440218791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1646.497784948677</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1273.032026687597</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>882.8926947117852</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="18">
@@ -5571,22 +5571,22 @@
         <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5604,13 +5604,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5695,22 +5695,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>352.67413830922</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U19" t="n">
-        <v>352.67413830922</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V19" t="n">
-        <v>97.9896501033331</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W19" t="n">
-        <v>97.9896501033331</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.175505447095</v>
+        <v>1979.48636361053</v>
       </c>
       <c r="C20" t="n">
-        <v>825.2129885066836</v>
+        <v>1610.523846670118</v>
       </c>
       <c r="D20" t="n">
-        <v>466.9472898999331</v>
+        <v>1252.258148063368</v>
       </c>
       <c r="E20" t="n">
-        <v>81.15903730168884</v>
+        <v>866.4698954651235</v>
       </c>
       <c r="F20" t="n">
-        <v>81.15903730168884</v>
+        <v>455.4839906755159</v>
       </c>
       <c r="G20" t="n">
-        <v>81.15903730168884</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5768,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748109</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487029</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961344</v>
@@ -5826,28 +5826,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>578.0123447940986</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>430.0992512117055</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5917,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064343</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064343</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1937.083492693021</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="C23" t="n">
-        <v>1568.12097575261</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="D23" t="n">
-        <v>1209.855277145859</v>
+        <v>802.5868852973811</v>
       </c>
       <c r="E23" t="n">
-        <v>824.0670245476149</v>
+        <v>802.5868852973811</v>
       </c>
       <c r="F23" t="n">
-        <v>413.0811197580073</v>
+        <v>391.6009805077735</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y23" t="n">
-        <v>2323.683332757143</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>372.9958041606071</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C25" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6154,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>580.0006547931532</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>580.0006547931532</v>
       </c>
       <c r="U25" t="n">
-        <v>600.9853550586245</v>
+        <v>580.0006547931532</v>
       </c>
       <c r="V25" t="n">
-        <v>600.9853550586245</v>
+        <v>580.0006547931532</v>
       </c>
       <c r="W25" t="n">
-        <v>600.9853550586245</v>
+        <v>580.0006547931532</v>
       </c>
       <c r="X25" t="n">
-        <v>372.9958041606071</v>
+        <v>580.0006547931532</v>
       </c>
       <c r="Y25" t="n">
-        <v>372.9958041606071</v>
+        <v>359.2080756496231</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776798</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776798</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785536</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889461</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2400.004118741662</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2068.941231398091</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>1716.172576127977</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1342.706817866897</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6300,7 +6300,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6321,25 +6321,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2294.708047044453</v>
+        <v>2342.015910972395</v>
       </c>
       <c r="C28" t="n">
-        <v>2125.771864116546</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D28" t="n">
-        <v>2125.771864116546</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>2125.771864116546</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>2125.771864116546</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
         <v>2022.963088632153</v>
@@ -6388,46 +6388,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018223</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018223</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018223</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="Y28" t="n">
-        <v>2476.356511874693</v>
+        <v>2523.664375802635</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6488,25 +6488,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1321.237013436559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1321.237013436559</v>
       </c>
     </row>
     <row r="30">
@@ -6522,19 +6522,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2697.149091018222</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C31" t="n">
-        <v>2528.212908090316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2378.09626867798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2072.434802528117</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018222</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018222</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y31" t="n">
-        <v>2697.149091018222</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1606.020605349451</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C32" t="n">
-        <v>1237.058088409039</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D32" t="n">
-        <v>878.7923898022884</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E32" t="n">
-        <v>493.0041372040442</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="W32" t="n">
-        <v>2366.086203674652</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="X32" t="n">
-        <v>1992.620445413572</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y32" t="n">
-        <v>1992.620445413572</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
         <v>713.8062203571349</v>
@@ -6798,28 +6798,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2180.667293341393</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C34" t="n">
-        <v>2180.667293341393</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D34" t="n">
-        <v>2180.667293341393</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E34" t="n">
-        <v>2180.667293341393</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="F34" t="n">
-        <v>2180.667293341393</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>128.7840011257288</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686825</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U34" t="n">
-        <v>2180.667293341393</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V34" t="n">
-        <v>2180.667293341393</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W34" t="n">
-        <v>2180.667293341393</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X34" t="n">
-        <v>2180.667293341393</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y34" t="n">
-        <v>2180.667293341393</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1912.197604328644</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C35" t="n">
-        <v>1543.235087388232</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D35" t="n">
-        <v>1543.235087388232</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E35" t="n">
-        <v>1157.446834789988</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V35" t="n">
-        <v>2302.336936304455</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W35" t="n">
-        <v>2302.336936304455</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X35" t="n">
-        <v>2302.336936304455</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y35" t="n">
-        <v>1912.197604328644</v>
+        <v>781.1711973675267</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7035,22 +7035,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7059,7 +7059,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7102,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1577.945354755378</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.982837814967</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2496.49728097275</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2496.49728097275</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2496.49728097275</v>
       </c>
       <c r="W38" t="n">
-        <v>2354.684526795312</v>
+        <v>2143.728625702635</v>
       </c>
       <c r="X38" t="n">
-        <v>2354.684526795312</v>
+        <v>1770.262867441555</v>
       </c>
       <c r="Y38" t="n">
-        <v>1964.5451948195</v>
+        <v>1380.123535465744</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7263,19 +7263,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073964</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7339,43 +7339,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T40" t="n">
-        <v>571.1061430638139</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U40" t="n">
-        <v>281.9325327183818</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V40" t="n">
-        <v>281.9325327183818</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W40" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.175505447095</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C41" t="n">
-        <v>1194.175505447095</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D41" t="n">
-        <v>835.9098068403443</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="E41" t="n">
-        <v>450.1215542421001</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7427,34 +7427,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487028</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.775345511217</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7500,31 +7500,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>380.6911546495019</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C43" t="n">
-        <v>380.6911546495019</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D43" t="n">
-        <v>380.6911546495019</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E43" t="n">
-        <v>380.6911546495019</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245969</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8405610245969</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V43" t="n">
-        <v>513.8405610245969</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W43" t="n">
-        <v>380.6911546495019</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X43" t="n">
-        <v>380.6911546495019</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y43" t="n">
-        <v>380.6911546495019</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1394.624369323446</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C44" t="n">
-        <v>1394.624369323446</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D44" t="n">
-        <v>1036.358670716696</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
@@ -7652,46 +7652,46 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2593.255235244486</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2374.620568216549</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2120.85878285464</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>2120.85878285464</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>1768.090127584526</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>1394.624369323446</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1394.624369323446</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7746,16 +7746,16 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>527.5174848136515</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="C46" t="n">
-        <v>358.5813018857447</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D46" t="n">
-        <v>358.5813018857447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E46" t="n">
-        <v>358.5813018857447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F46" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7813,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="X46" t="n">
-        <v>709.1659496438913</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="Y46" t="n">
-        <v>709.1659496438913</v>
+        <v>438.9553738610023</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093849</v>
+        <v>129.591740357718</v>
       </c>
       <c r="N9" t="n">
-        <v>121.12516631236</v>
+        <v>322.2342477951065</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
@@ -22598,10 +22598,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>117.9056139093583</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22641,10 +22641,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.7638106528868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22744,19 +22744,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22790,10 +22790,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22835,7 +22835,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>160.679581861839</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22844,10 +22844,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,16 +22863,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>57.12999154646258</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>59.84577397866495</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22990,13 +22990,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23027,19 +23027,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.6883361205949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>143.6340117900446</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521645</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>106.6637379862502</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>4.097100052852072</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>206.9118586999128</v>
@@ -23075,7 +23075,7 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>107.1993991164782</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268022</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23115,7 +23115,7 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
         <v>87.69233988828962</v>
@@ -23145,28 +23145,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>105.2284454182402</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>63.22326511921705</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23194,13 +23194,13 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>92.44829719872982</v>
+        <v>2.023134740338435</v>
       </c>
       <c r="I10" t="n">
         <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
         <v>17.44799951871611</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>220.1790655508309</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>79.37034595068943</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>62.83565667262108</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23498,22 +23498,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>216.4585035622705</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>287.6067095143163</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,10 +23671,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.8356566726212</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,16 +23729,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>62.48831449595862</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23932,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>182.1034537888982</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>16.25857125419503</v>
       </c>
       <c r="H20" t="n">
-        <v>296.978877837846</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24026,16 +24026,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>75.3017653768928</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24181,16 +24181,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,19 +24206,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>58.23741346252859</v>
+        <v>79.50275132026002</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24263,7 +24263,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24412,13 +24412,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>65.49849283087073</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>160.409681385646</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,13 +24497,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>11.52904752930613</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.5291145295021</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24658,7 +24658,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>80.38777526039675</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,22 +24683,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24728,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>326.6595717350889</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>85.98862503533381</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24892,7 +24892,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>40.91695832234799</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,16 +24917,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>385.9896719326636</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24935,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,19 +24971,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>140.174462846521</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>11.18263959690378</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>60.87301268002749</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25123,13 +25123,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,19 +25157,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>52.11417408693671</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.26243469995427</v>
       </c>
     </row>
     <row r="36">
@@ -25366,19 +25366,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>63.37316471551381</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>17.80302841263932</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>10.20105013673145</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25600,19 +25600,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>69.58249272689014</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,22 +25628,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>14.65925904419316</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>242.8007662357191</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25685,7 +25685,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
@@ -25831,10 +25831,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>87.00133556471238</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>154.7050860252469</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>126.0391981677842</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>69.66564778894703</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>45.199959188537</v>
@@ -26077,7 +26077,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>206.9362511721197</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>476112.7944668499</v>
+        <v>476112.79446685</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
   </sheetData>
@@ -26326,13 +26326,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26350,10 +26350,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.718513394</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>26613.58757266329</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835742</v>
+        <v>407720.4376835741</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525744</v>
+        <v>5625.642228525687</v>
       </c>
       <c r="M3" t="n">
         <v>102434.1176906351</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16565.16787800056</v>
+        <v>16958.01308307726</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26485,31 +26485,31 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="M5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4336.588039112132</v>
+        <v>-4728.818284657755</v>
       </c>
       <c r="C6" t="n">
-        <v>76432.84349243558</v>
+        <v>76040.61324689005</v>
       </c>
       <c r="D6" t="n">
-        <v>54025.96513975096</v>
+        <v>53633.11993467427</v>
       </c>
       <c r="E6" t="n">
-        <v>-228985.9102937858</v>
+        <v>-229401.1248032529</v>
       </c>
       <c r="F6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="G6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="H6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="I6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="J6" t="n">
-        <v>115674.5847906822</v>
+        <v>115259.3702812149</v>
       </c>
       <c r="K6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="L6" t="n">
-        <v>173108.8851612627</v>
+        <v>172693.6706517955</v>
       </c>
       <c r="M6" t="n">
-        <v>76300.4096991534</v>
+        <v>75885.19518968603</v>
       </c>
       <c r="N6" t="n">
-        <v>178734.5273897885</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="O6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="P6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803212</v>
       </c>
     </row>
   </sheetData>
@@ -26796,7 +26796,7 @@
         <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26805,31 +26805,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27018,7 +27018,7 @@
         <v>22.22774507400783</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028888</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400794</v>
+        <v>22.22774507400771</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>411.0452388028889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>22.22774507400783</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028888</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31774,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31932,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31947,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32248,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32406,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32421,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34784,13 +34784,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.930118828988703</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L9" t="n">
         <v>243.0338665604673</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.657704983214834</v>
+        <v>203.7667864659613</v>
       </c>
       <c r="O9" t="n">
         <v>263.0434990833254</v>
@@ -35270,7 +35270,7 @@
         <v>193.94078250313</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903819</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35738,13 +35738,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,13 +35896,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35972,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36689,10 +36689,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37385,7 +37385,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,7 +37394,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37631,7 +37631,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
         <v>421.5361394435301</v>
@@ -37795,7 +37795,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116803</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37868,7 +37868,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M44" t="n">
         <v>485.8144648060965</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,7 +38105,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>743870.5505813217</v>
+        <v>784180.4057267144</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889767</v>
+        <v>337002.2430554239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8139267.539434056</v>
+        <v>8121653.028417468</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>54.80288507895745</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -902,64 +904,64 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>140.6132203701226</v>
       </c>
       <c r="F6" t="n">
-        <v>85.22343841471893</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1136,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>144.138852502454</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V9" t="n">
-        <v>169.5773220302082</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>268.9836126636989</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>95.04536685828211</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755638</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,10 +1548,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1610,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>44.15180985493009</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>61.63425920309675</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -1819,7 +1821,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>159.5623709710786</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>218.3734398702018</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2087,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>397.5255987666</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>26.64360395382558</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>334.281418700535</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>146.6470461191482</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>376.1848636439235</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>239.6951199789832</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2646,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>171.7498680634313</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2849,13 +2851,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>49.72959917530084</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>43.07152894338012</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>245.3649159196297</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="V32" t="n">
-        <v>187.5777956236139</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>49.30642419397959</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>74.09260911231074</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>165.1786161895359</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>369.9755039560993</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>223.1498336210772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>26.94389492651069</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>198.6452919450185</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>81.12200652863805</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3828,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.5310119231965</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>59.66385641544548</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>339.723491603805</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.58117330968081</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.0604900729671</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4422,37 +4424,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X3" t="n">
-        <v>655.0361258579891</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y3" t="n">
-        <v>447.2758270930352</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C5" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D5" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W5" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X5" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y5" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>587.9903182850353</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C6" t="n">
-        <v>413.5372890039083</v>
+        <v>311.0032413536665</v>
       </c>
       <c r="D6" t="n">
-        <v>264.602879342657</v>
+        <v>162.0688316924152</v>
       </c>
       <c r="E6" t="n">
-        <v>105.3654243372015</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,10 +4652,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4680,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>756.2056553051034</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2056553051034</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="7">
@@ -4741,13 +4743,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>495.9595608383938</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C8" t="n">
-        <v>495.9595608383938</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D8" t="n">
-        <v>495.9595608383938</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>495.9595608383938</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>230.0585164427707</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>230.0585164427707</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>230.0585164427707</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098027</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369335</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415462</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>907.4554057415462</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>907.4554057415462</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>761.8606052340169</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>761.8606052340169</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>761.8606052340169</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>495.9595608383938</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>495.9595608383938</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195.5123919972604</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683217</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399124</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>398.824578434775</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>398.824578434775</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360766</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285688</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>954.9030226480438</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>782.4144152406848</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>782.4144152406848</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>782.4144152406848</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>611.1241909677472</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>611.1241909677472</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>403.2726907622143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>195.5123919972604</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1995.909162857192</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>890.0954814671036</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>479.109576677496</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5045,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2601.143669949251</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2382.509002921313</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2382.509002921313</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2382.509002921313</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2382.509002921313</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X11" t="n">
-        <v>2382.509002921313</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y11" t="n">
-        <v>2382.509002921313</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="12">
@@ -5130,10 +5132,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5182,19 +5184,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816298</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1210.087414675782</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C14" t="n">
-        <v>1210.087414675782</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D14" t="n">
-        <v>1210.087414675782</v>
+        <v>1222.509646904466</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>836.7213943062218</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>425.7354895166142</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>425.7354895166142</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>98.54076955261706</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5282,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>1600.226746651594</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X14" t="n">
-        <v>1600.226746651594</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y14" t="n">
-        <v>1210.087414675782</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="15">
@@ -5370,10 +5372,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2310.5492509541</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C17" t="n">
-        <v>1941.586734013689</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D17" t="n">
-        <v>1583.321035406938</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E17" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>368.5830699172734</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
@@ -5516,16 +5518,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5558,7 +5560,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="18">
@@ -5571,46 +5573,46 @@
         <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5677,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1979.48636361053</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C20" t="n">
-        <v>1610.523846670118</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D20" t="n">
-        <v>1252.258148063368</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E20" t="n">
-        <v>866.4698954651235</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
-        <v>455.4839906755159</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W20" t="n">
-        <v>2366.086203674652</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X20" t="n">
-        <v>2366.086203674652</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y20" t="n">
-        <v>2366.086203674652</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="21">
@@ -5941,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9325327183818</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1160.852583904132</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C23" t="n">
-        <v>1160.852583904132</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D23" t="n">
-        <v>802.5868852973811</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E23" t="n">
-        <v>802.5868852973811</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>391.6009805077735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1937.591755944065</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y23" t="n">
-        <v>1547.452423968253</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="24">
@@ -6087,7 +6089,7 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.2080756496231</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>580.0006547931532</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>580.0006547931532</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>580.0006547931532</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>580.0006547931532</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>580.0006547931532</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X25" t="n">
-        <v>580.0006547931532</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y25" t="n">
-        <v>359.2080756496231</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>952.5674858910851</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>952.5674858910851</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>952.5674858910851</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E26" t="n">
-        <v>952.5674858910851</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2400.004118741662</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2068.941231398091</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>1716.172576127977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>1342.706817866897</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y26" t="n">
-        <v>952.5674858910851</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6315,13 +6317,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6342,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2342.015910972395</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>2523.664375802635</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W28" t="n">
-        <v>2523.664375802635</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X28" t="n">
-        <v>2523.664375802635</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>2523.664375802635</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>934.637173372437</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C29" t="n">
-        <v>565.6746564320254</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D29" t="n">
-        <v>207.4089578252748</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E29" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
         <v>207.4089578252748</v>
@@ -6458,16 +6460,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.512263598976</v>
+        <v>2119.49203079998</v>
       </c>
       <c r="W29" t="n">
-        <v>1364.743608328862</v>
+        <v>1766.723375529866</v>
       </c>
       <c r="X29" t="n">
-        <v>1321.237013436559</v>
+        <v>1766.723375529866</v>
       </c>
       <c r="Y29" t="n">
-        <v>1321.237013436559</v>
+        <v>1766.723375529866</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6579,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.8791647482714</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6640,31 +6642,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.8791647482714</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1422.14692331494</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C32" t="n">
-        <v>1422.14692331494</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D32" t="n">
-        <v>1422.14692331494</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.358616186807</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V32" t="n">
-        <v>2198.886095354873</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W32" t="n">
-        <v>2198.886095354873</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X32" t="n">
-        <v>2198.886095354873</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y32" t="n">
-        <v>1808.746763379062</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6755,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C34" t="n">
-        <v>286.5323736931987</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D34" t="n">
-        <v>286.5323736931987</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E34" t="n">
-        <v>286.5323736931987</v>
+        <v>2328.291799795172</v>
       </c>
       <c r="F34" t="n">
-        <v>286.5323736931987</v>
+        <v>2328.291799795172</v>
       </c>
       <c r="G34" t="n">
-        <v>286.5323736931987</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H34" t="n">
-        <v>128.7840011257288</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X34" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y34" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>781.1711973675267</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="C35" t="n">
-        <v>412.208680427115</v>
+        <v>606.5783214787459</v>
       </c>
       <c r="D35" t="n">
-        <v>53.94298182036446</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2212.181128500978</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>1881.118241157407</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W35" t="n">
-        <v>1528.349585887293</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X35" t="n">
-        <v>1154.883827626213</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y35" t="n">
-        <v>781.1711973675267</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7059,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064343</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1380.123535465744</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C38" t="n">
-        <v>1011.161018525332</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D38" t="n">
-        <v>1011.161018525332</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E38" t="n">
-        <v>625.3727659270879</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7190,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2496.49728097275</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2496.49728097275</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2496.49728097275</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.728625702635</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X38" t="n">
-        <v>1770.262867441555</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y38" t="n">
-        <v>1380.123535465744</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7339,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>863.1126181035247</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C41" t="n">
-        <v>494.150101163113</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>135.8844025563625</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>135.8844025563625</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>135.8844025563625</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>135.8844025563625</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>1639.851790143458</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y41" t="n">
-        <v>1249.712458167646</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7509,31 +7511,31 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V43" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W43" t="n">
-        <v>667.8624625746712</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X43" t="n">
-        <v>667.8624625746712</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y43" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776798</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776798</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785536</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7664,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7722,46 +7724,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610023</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>438.9553738610023</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>129.591740357718</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N9" t="n">
-        <v>322.2342477951065</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9018,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22598,10 +22600,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22626,13 +22628,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>117.9056139093583</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>41.31998168728992</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22641,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22686,7 +22688,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22790,10 +22792,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>319.5141023699695</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22838,16 +22840,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22869,10 +22871,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>17.03186008527837</v>
       </c>
       <c r="F6" t="n">
-        <v>59.84577397866495</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,13 +22922,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23024,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852072</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>107.1993991164782</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268022</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V9" t="n">
-        <v>63.22326511921705</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>2.023134740338435</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>144.8005573570961</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.37034595068943</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890128</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23498,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>107.7795063899312</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>287.6067095143163</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23671,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>51.3673158183902</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>167.8644987858518</v>
       </c>
     </row>
     <row r="18">
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>12.09831362246982</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>69.82361682150338</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23975,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>16.25857125419503</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>189.8047164038322</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24181,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>131.0703856053968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>79.50275132026002</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24263,13 +24265,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>65.49849283087073</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>37.59930637687148</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,13 +24499,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>11.52904752930613</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24658,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>80.38777526039675</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>278.0226592948341</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>326.6595717350889</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24892,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>40.91695832234799</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,16 +24973,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>224.2802725817785</v>
       </c>
       <c r="V32" t="n">
-        <v>140.174462846521</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,28 +25077,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>97.12753845258959</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>60.87301268002749</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>189.5044254311471</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.26243469995427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25363,22 +25365,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>63.37316471551381</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>296.9788778378464</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>17.80302841263932</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25600,7 +25602,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030472</v>
       </c>
     </row>
     <row r="41">
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>242.8007662357191</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,13 +25687,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>87.00133556471238</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="44">
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>25.54940016720258</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25922,10 +25924,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.66564778894703</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26043,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>45.199959188537</v>
@@ -26077,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457060.9393513079</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>476112.79446685</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
   </sheetData>
@@ -26317,28 +26319,28 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972482</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="J2" t="n">
         <v>245779.7185133938</v>
       </c>
-      <c r="J2" t="n">
-        <v>245779.7185133939</v>
-      </c>
       <c r="K2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26347,10 +26349,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266329</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835741</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525687</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16958.01308307726</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26473,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26500,16 +26502,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4728.818284657755</v>
+        <v>-4728.818284657689</v>
       </c>
       <c r="C6" t="n">
+        <v>76040.61324688999</v>
+      </c>
+      <c r="D6" t="n">
         <v>76040.61324689005</v>
       </c>
-      <c r="D6" t="n">
-        <v>53633.11993467427</v>
-      </c>
       <c r="E6" t="n">
-        <v>-229401.1248032529</v>
+        <v>-254526.8611626749</v>
       </c>
       <c r="F6" t="n">
         <v>178319.3128803211</v>
@@ -26537,7 +26539,7 @@
         <v>178319.3128803211</v>
       </c>
       <c r="H6" t="n">
-        <v>178319.3128803211</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="I6" t="n">
         <v>178319.3128803211</v>
@@ -26549,16 +26551,16 @@
         <v>178319.3128803211</v>
       </c>
       <c r="L6" t="n">
-        <v>172693.6706517955</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="M6" t="n">
-        <v>75885.19518968603</v>
+        <v>70345.95220626301</v>
       </c>
       <c r="N6" t="n">
         <v>178319.3128803211</v>
       </c>
       <c r="O6" t="n">
-        <v>178319.3128803212</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="P6" t="n">
         <v>178319.3128803212</v>
@@ -26741,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26750,7 +26752,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26774,7 +26776,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26811,25 +26813,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.730281530297</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400783</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400771</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400783</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367679</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887802</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035003</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760445</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324509</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841739</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544934</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679593</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318454</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294142</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104788</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.67671015524656</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750316</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688227</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523081</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210614</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605604</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.919449770552396</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467892</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994849</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259059</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166742</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471434</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988743</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848031</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150904</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.01918103713195</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750111</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815375</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34790,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988703</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889699</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N9" t="n">
-        <v>203.7667864659613</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>193.94078250313</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025438</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35738,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36212,7 +36214,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36449,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36923,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37160,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,10 +37396,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37634,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116803</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
         <v>485.8144648060965</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>784180.4057267144</v>
+        <v>715887.5092847081</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554239</v>
+        <v>335138.4509359649</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10900007.06587737</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8121653.028417468</v>
+        <v>8145305.651812982</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="F2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>28.25887585634932</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.66720016097577</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.3992651953317556</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>137.0815656650982</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>83.25716197509955</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>140.6132203701226</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.4663798892231</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>137.081565665098</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>83.70888068730592</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
     </row>
     <row r="9">
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>55.57566235103572</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>132.5008957477101</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>268.9836126636989</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>252.5568099896529</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.15180985493009</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>350.5732395046039</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>31.27656125082228</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.3734398702018</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>342.0186333331417</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>26.64360395382558</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>85.87170836083649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>43.31785343913981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>339.0399185806816</v>
+        <v>98.9246573280012</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.91544265059197</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2114886365804</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>376.1848636439235</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>34.78065824339497</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>49.72959917530084</v>
+        <v>270.2583628783916</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>101.7806877295491</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>22.34164242902995</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>26.94389492651078</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.1284984962242</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>49.30642419397959</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>136.1916198885552</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>165.1786161895359</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>36.25939569967835</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>128.7835007017901</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>26.94389492651069</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>79.22210190382104</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>36.86740133315033</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>47.93792996527441</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>21.16154086980884</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>339.723491603805</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>253.5111876485553</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>542.175463617815</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>542.175463617815</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>295.142400626762</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7108255783361</v>
+        <v>48.1093376357089</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>48.1093376357089</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973464</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260858</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024594</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586092</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646273</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445701</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445701</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445701</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>767.4595009530265</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>542.175463617815</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>542.175463617815</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>542.175463617815</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>542.175463617815</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>542.175463617815</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>542.175463617815</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.7812428759814</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="C3" t="n">
-        <v>136.7812428759814</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="D3" t="n">
-        <v>136.7812428759814</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>239.4861551219975</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>481.6032601595286</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>723.7203651970598</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>907.8577401332363</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445701</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>877.5769898880289</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>704.3079091975969</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>502.1534879887899</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>501.7501898116872</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>266.5980815799444</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="X3" t="n">
-        <v>512.7568786610034</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="Y3" t="n">
-        <v>304.9965798960495</v>
+        <v>19.5650185888914</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>47.8542506493671</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863022</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860523</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334351</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334351</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>158.0312465334351</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334351</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334351</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334351</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334351</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334351</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.5650185888914</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.7999090013961</v>
+        <v>114.4669636577937</v>
       </c>
       <c r="C5" t="n">
-        <v>274.7999090013961</v>
+        <v>114.4669636577937</v>
       </c>
       <c r="D5" t="n">
-        <v>274.7999090013961</v>
+        <v>114.4669636577937</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>114.4669636577937</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>114.4669636577937</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>114.4669636577937</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>114.4669636577937</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>608.5330896398996</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>608.5330896398996</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>361.5000266488466</v>
       </c>
       <c r="V5" t="n">
-        <v>477.1596022224361</v>
+        <v>361.5000266488466</v>
       </c>
       <c r="W5" t="n">
-        <v>274.7999090013961</v>
+        <v>361.5000266488466</v>
       </c>
       <c r="X5" t="n">
-        <v>274.7999090013961</v>
+        <v>361.5000266488466</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7999090013961</v>
+        <v>361.5000266488466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>485.4562706347935</v>
+        <v>332.7408911953536</v>
       </c>
       <c r="C6" t="n">
-        <v>311.0032413536665</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="D6" t="n">
-        <v>162.0688316924152</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>551.9964494708621</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>794.1135545083931</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>776.0965082357627</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>776.0965082357627</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>748.3526901658404</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>748.3526901658404</v>
       </c>
       <c r="X6" t="n">
-        <v>485.4562706347935</v>
+        <v>540.5011899603076</v>
       </c>
       <c r="Y6" t="n">
-        <v>485.4562706347935</v>
+        <v>332.7408911953536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.6192102101089</v>
+        <v>109.7522725546768</v>
       </c>
       <c r="C8" t="n">
-        <v>223.6192102101089</v>
+        <v>109.7522725546768</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>109.7522725546768</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>109.7522725546768</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>109.7522725546768</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>641.5543613459231</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>641.5543613459231</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.6192102101089</v>
+        <v>375.6533169502999</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>261.6628906109959</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>522.2725042231461</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>782.8821178352964</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>1043.295181927789</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U9" t="n">
-        <v>705.7335281915883</v>
+        <v>824.7478070488723</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>690.9085184148217</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>436.6711616866201</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1275.883734065348</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C11" t="n">
-        <v>1275.883734065348</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D11" t="n">
-        <v>1275.883734065348</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E11" t="n">
-        <v>890.0954814671036</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>479.109576677496</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>1662.48357412947</v>
+        <v>1583.553172936862</v>
       </c>
       <c r="X11" t="n">
-        <v>1662.48357412947</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y11" t="n">
-        <v>1662.48357412947</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5138,10 +5138,10 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1580.775345511217</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C14" t="n">
-        <v>1580.775345511217</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D14" t="n">
-        <v>1222.509646904466</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
-        <v>836.7213943062218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>425.7354895166142</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>425.7354895166142</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>98.54076955261706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5281,16 +5281,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.380435748108</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X14" t="n">
-        <v>1970.914677487028</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.775345511217</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="15">
@@ -5339,19 +5339,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5372,10 +5372,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>138.3857151273827</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="D16" t="n">
-        <v>138.3857151273827</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E16" t="n">
-        <v>138.3857151273827</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F16" t="n">
-        <v>138.3857151273827</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G16" t="n">
-        <v>138.3857151273827</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>798.5184404945476</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>412.7301878963033</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>412.7301878963033</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.569858826099</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="18">
@@ -5576,10 +5576,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
@@ -5588,31 +5588,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.1711973675267</v>
+        <v>1228.366061714959</v>
       </c>
       <c r="C20" t="n">
-        <v>412.2086804271149</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5755,16 +5755,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.207670282225</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.207670282225</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.144782938654</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W20" t="n">
-        <v>1931.37612766854</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X20" t="n">
-        <v>1557.91036940746</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.771037431648</v>
+        <v>1228.366061714959</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
         <v>53.94298182036445</v>
@@ -5940,22 +5940,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="W22" t="n">
-        <v>684.3735766921516</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X22" t="n">
-        <v>456.3840257941342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y22" t="n">
-        <v>235.5914466506042</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755378</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6022,19 +6022,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.684526795312</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6077,34 +6077,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>711.0426784987656</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>711.0426784987656</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>711.0426784987656</v>
       </c>
       <c r="W25" t="n">
-        <v>2407.731920981262</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="X25" t="n">
-        <v>2179.742370083244</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D26" t="n">
-        <v>819.7159451700466</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>433.9276925718023</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>433.9276925718023</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036444</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2606.988423525084</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2606.988423525084</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2606.988423525084</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2606.988423525084</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757142</v>
+        <v>1880.75400999389</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.54400078133</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036444</v>
@@ -6317,37 +6317,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
         <v>53.94298182036444</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V28" t="n">
-        <v>571.3497027553424</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1380.123535465744</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="C29" t="n">
-        <v>1011.161018525332</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D29" t="n">
-        <v>1011.161018525332</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E29" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
         <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.723949158869</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>2119.49203079998</v>
+        <v>1896.735703827161</v>
       </c>
       <c r="W29" t="n">
-        <v>1766.723375529866</v>
+        <v>1543.967048557047</v>
       </c>
       <c r="X29" t="n">
-        <v>1766.723375529866</v>
+        <v>1543.967048557047</v>
       </c>
       <c r="Y29" t="n">
-        <v>1766.723375529866</v>
+        <v>1543.967048557047</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326643</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="C31" t="n">
-        <v>156.7517573047574</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>76.51029740524319</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629041</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1166.959449965771</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C32" t="n">
-        <v>797.9969330253591</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6703,7 +6703,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224073</v>
@@ -6730,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2669.933035536898</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V32" t="n">
-        <v>2669.933035536898</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W32" t="n">
-        <v>2317.164380266784</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X32" t="n">
-        <v>1943.698622005704</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="Y32" t="n">
-        <v>1553.559290029893</v>
+        <v>1168.064026826587</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C34" t="n">
-        <v>2528.212908090316</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D34" t="n">
-        <v>2378.09626867798</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E34" t="n">
-        <v>2328.291799795172</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="F34" t="n">
-        <v>2328.291799795172</v>
+        <v>191.5102746370868</v>
       </c>
       <c r="G34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>975.5408384191576</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C35" t="n">
-        <v>606.5783214787459</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V35" t="n">
-        <v>2478.514423990285</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="W35" t="n">
-        <v>2125.745768720171</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="X35" t="n">
-        <v>1752.280010459091</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="Y35" t="n">
-        <v>1362.140678483279</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="36">
@@ -7028,13 +7028,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>598.0446400632119</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1194.175505447095</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C38" t="n">
-        <v>825.2129885066831</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D38" t="n">
-        <v>466.9472898999326</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
-        <v>81.15903730168839</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>81.15903730168839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>81.15903730168839</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2343.463409365404</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2012.400522021833</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748108</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487028</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y38" t="n">
-        <v>1580.775345511217</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,43 +7253,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="D40" t="n">
         <v>53.94298182036445</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W40" t="n">
-        <v>184.0273259635867</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X40" t="n">
-        <v>184.0273259635867</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755378</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L41" t="n">
         <v>881.2824271224076</v>
@@ -7423,7 +7423,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="X41" t="n">
-        <v>2354.684526795312</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7502,37 +7502,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>706.7536903985465</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>479.4455030671483</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064344</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064344</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W43" t="n">
-        <v>438.7118141694738</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X43" t="n">
-        <v>210.7222632714565</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>808.0839286340174</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C44" t="n">
-        <v>464.928886609972</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D44" t="n">
-        <v>464.928886609972</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7684,16 +7684,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1584.823100673951</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="Y44" t="n">
-        <v>1194.683768698139</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7727,43 +7727,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7839,13 +7839,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X46" t="n">
         <v>53.94298182036445</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824674</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>362.2743407998538</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>373.8491954283779</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>188.5314933775169</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>185.4193833999402</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>134.2926466205232</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>110.1203092595404</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>137.3676377111192</v>
       </c>
       <c r="F2" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>387.0290923607224</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311367</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313097</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>41.31998168728992</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281174</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>225.5415969993846</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>7.132250799777069</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141463</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611828</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816385</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>85.60728995481477</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>149.4414326714928</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>126.6493342317215</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>6.781739002849008</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22868,22 +22868,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>17.03186008527837</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.3342072602022</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>90.83571695072735</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>119.4918077118137</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>331.5013407165255</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>85.99893476574613</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>122.9959047043867</v>
       </c>
     </row>
     <row r="9">
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>100.2996914017152</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>67.9332040940474</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>144.8005573570961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>96.68415872776012</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>107.7795063899312</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>35.66469915144967</v>
       </c>
     </row>
     <row r="15">
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>115.1383805067651</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>51.3673158183902</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>382.5076087699727</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.8644987858518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>12.09831362246982</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23949,13 +23949,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>23.25425843786581</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>189.8047164038322</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,7 +24180,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>139.1633970972478</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>243.2051448974512</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24262,16 +24262,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>30.69118209778748</v>
+        <v>270.8064433504678</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24417,7 +24417,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>208.1196628074923</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.37316471551443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>37.59930637687148</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>139.6350545655766</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24654,19 +24654,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>135.9689721019666</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>278.0226592948341</v>
+        <v>57.49389559174335</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>46.8347852886633</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>123.0794055939013</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24888,7 +24888,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24970,22 +24970,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>224.2802725817785</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>0.6026021822448797</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>97.12753845258959</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>31.11818237049576</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
         <v>45.19995918853701</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>189.5044254311471</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25213,13 +25213,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>291.4928627704566</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25365,13 +25365,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>96.25160475629417</v>
+        <v>135.9689721019666</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>296.9788778378464</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>172.0020656044683</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>111.748071685062</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25602,22 +25602,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.80115265030472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>279.8143285048605</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>190.9839980802101</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>25.54940016720258</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25924,13 +25924,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>116.2199130299138</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,7 +26079,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457060.939351308</v>
+        <v>460139.1927209572</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457060.939351308</v>
+        <v>460139.1927209569</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457060.9393513079</v>
+        <v>476112.79446685</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26328,19 +26328,19 @@
         <v>245779.7185133938</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="J2" t="n">
         <v>245779.7185133939</v>
       </c>
-      <c r="J2" t="n">
-        <v>245779.7185133938</v>
-      </c>
       <c r="K2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26349,10 +26349,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>85498.77860120923</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753563</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>407720.4376835743</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63988.37154589874</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847426</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>102434.1176906351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>16922.92270143587</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098084</v>
+        <v>16922.92270143587</v>
       </c>
       <c r="D4" t="n">
-        <v>16914.68964098084</v>
+        <v>16958.01308307726</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863015</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4728.818284657689</v>
+        <v>-20936.6743732277</v>
       </c>
       <c r="C6" t="n">
-        <v>76040.61324688999</v>
+        <v>64562.10422798159</v>
       </c>
       <c r="D6" t="n">
-        <v>76040.61324689005</v>
+        <v>46022.68383244464</v>
       </c>
       <c r="E6" t="n">
-        <v>-254526.8611626749</v>
+        <v>-235469.5385490724</v>
       </c>
       <c r="F6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.8991345019</v>
       </c>
       <c r="G6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.8991345019</v>
       </c>
       <c r="H6" t="n">
-        <v>178319.3128803212</v>
+        <v>172250.899134502</v>
       </c>
       <c r="I6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.8991345019</v>
       </c>
       <c r="J6" t="n">
-        <v>115259.3702812149</v>
+        <v>108262.5275886032</v>
       </c>
       <c r="K6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.8991345019</v>
       </c>
       <c r="L6" t="n">
-        <v>178319.3128803212</v>
+        <v>167523.3360156545</v>
       </c>
       <c r="M6" t="n">
-        <v>70345.95220626301</v>
+        <v>69816.78144386687</v>
       </c>
       <c r="N6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.899134502</v>
       </c>
       <c r="O6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.899134502</v>
       </c>
       <c r="P6" t="n">
-        <v>178319.3128803212</v>
+        <v>172250.899134502</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242467</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="F3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="G3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="F3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="G3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26776,7 +26776,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242467</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>354.7302815302971</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.67930159052446</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028888</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052446</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052446</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01476929806328629</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1512560737906307</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5693933635848452</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.253525711498846</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.878710098517755</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.330706004122053</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.59335950855502</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.635322776677333</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.488460569060529</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.123843523123149</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.594918036231708</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.9277519194679081</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.3365553796171366</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.06465260227203576</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.001181543845062903</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.007902271128861155</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07631930274452749</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2720738086033337</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578867</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.276043491891584</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.715797948395928</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.002255276817144</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.055249016097972</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.88015132424268</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.508987194773496</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.008717977782347</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4906339916673621</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.146781220310206</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.03185169810273421</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.0005198862584777078</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.006624998659945432</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.05890226081296943</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1992317778827227</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.468387405258142</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.769704389764569</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.984956618952251</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.038498653576719</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.013805476753286</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.9364134469530145</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8012634742901271</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.5547532968796125</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.2978840306553645</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.1154556584646853</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.02830681245613047</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0003613635632697512</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741148</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920706</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933624</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>222.1425621546527</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>185.9973484203804</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>71.10423162760993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926839</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>40.6223756154173</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598188</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099269</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>59.24503031028151</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M9" t="n">
-        <v>43.28534947792188</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.770660483716004</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245897</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245897</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245897</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>715887.5092847081</v>
+        <v>776581.9671902248</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335138.4509359649</v>
+        <v>337002.2430554234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10900007.06587737</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8145305.651812982</v>
+        <v>8121653.028417467</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>244.5627323611425</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>244.5627323611425</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>28.25887585634932</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.66720016097577</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3992651953317556</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>244.5627323611425</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>137.0815656650982</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>83.25716197509955</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>78.00370092961379</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>27.4663798892231</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>137.081565665098</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>83.70888068730592</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>152.0246714969779</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>132.5008957477101</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>82.94266389238189</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>252.5568099896529</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>154.8300682815184</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>350.5732395046039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>31.27656125082228</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>12.88937709206596</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>342.0186333331417</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>64.04741578179755</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>85.87170836083649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>15.90252802695406</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>44.45311753961038</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>98.9246573280012</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.91544265059197</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>150.8242332627665</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>34.78065824339497</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>270.2583628783916</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>129.2259067304836</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>22.34164242902995</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>85.87170836083652</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>36.31606325004098</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.1284984962242</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>136.1916198885552</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>73.46100831328349</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>36.25939569967835</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>338.9006856084215</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>79.22210190382104</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>36.86740133315033</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>68.43141783824916</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>47.93792996527441</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>221.5455834936719</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>89.30725745073089</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>21.16154086980884</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>141.4957998077628</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>253.5111876485553</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>542.175463617815</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>542.175463617815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>295.142400626762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>48.1093376357089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>48.1093376357089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>124.4399474973464</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>306.8231980260858</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>526.3662512024594</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>734.8297429586092</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>886.4882690646273</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>978.2509294445701</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>978.2509294445701</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>978.2509294445701</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>767.4595009530265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>542.175463617815</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>542.175463617815</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>542.175463617815</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>542.175463617815</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>542.175463617815</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>542.175463617815</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.5650185888914</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5650185888914</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.5650185888914</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.5650185888914</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.5650185888914</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5650185888914</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.5650185888914</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.5650185888914</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>239.4861551219975</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>481.6032601595286</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>723.7203651970598</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>907.8577401332363</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
-        <v>978.2509294445701</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>877.5769898880289</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>704.3079091975969</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>502.1534879887899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>501.7501898116872</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>266.5980815799444</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>19.5650185888914</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5650185888914</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.5650185888914</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>47.8542506493671</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>88.07040250863022</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>132.7649205860523</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>158.0312465334351</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>158.0312465334351</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.0312465334351</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>158.0312465334351</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>158.0312465334351</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0312465334351</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>158.0312465334351</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>158.0312465334351</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.5650185888914</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114.4669636577937</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>114.4669636577937</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>114.4669636577937</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>114.4669636577937</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>114.4669636577937</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>114.4669636577937</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>114.4669636577937</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>30.36882024860223</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>969.7703423957684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>819.3245181314433</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>608.5330896398996</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>608.5330896398996</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>361.5000266488466</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>361.5000266488466</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>361.5000266488466</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>361.5000266488466</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>361.5000266488466</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>332.7408911953536</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C6" t="n">
-        <v>158.2878619142265</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D6" t="n">
-        <v>158.2878619142265</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E6" t="n">
-        <v>158.2878619142265</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F6" t="n">
-        <v>158.2878619142265</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>251.2267644261524</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>493.3438694636834</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>551.9964494708621</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>794.1135545083931</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445697</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445697</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445697</v>
+        <v>885.2655384100162</v>
       </c>
       <c r="S6" t="n">
-        <v>978.2509294445697</v>
+        <v>885.2655384100162</v>
       </c>
       <c r="T6" t="n">
-        <v>776.0965082357627</v>
+        <v>683.0789437687823</v>
       </c>
       <c r="U6" t="n">
-        <v>776.0965082357627</v>
+        <v>683.0789437687823</v>
       </c>
       <c r="V6" t="n">
-        <v>748.3526901658404</v>
+        <v>683.0789437687823</v>
       </c>
       <c r="W6" t="n">
-        <v>748.3526901658404</v>
+        <v>683.0789437687823</v>
       </c>
       <c r="X6" t="n">
-        <v>540.5011899603076</v>
+        <v>683.0789437687823</v>
       </c>
       <c r="Y6" t="n">
-        <v>332.7408911953536</v>
+        <v>475.3186450038284</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.7522725546768</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C8" t="n">
-        <v>109.7522725546768</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D8" t="n">
-        <v>109.7522725546768</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E8" t="n">
-        <v>109.7522725546768</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F8" t="n">
-        <v>109.7522725546768</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573683</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098028</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369336</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415462</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>907.4554057415462</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>907.4554057415462</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>907.4554057415462</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>907.4554057415462</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>641.5543613459231</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>641.5543613459231</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y8" t="n">
-        <v>375.6533169502999</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613335</v>
+        <v>172.8414173495843</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613335</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109959</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231461</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>782.8821178352964</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>1043.295181927789</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806668</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806668</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>824.7478070488723</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9085184148217</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>436.6711616866201</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8196614810873</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613335</v>
+        <v>172.8414173495843</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1210.087414675782</v>
+        <v>709.1532345052515</v>
       </c>
       <c r="C11" t="n">
-        <v>1210.087414675782</v>
+        <v>709.1532345052515</v>
       </c>
       <c r="D11" t="n">
-        <v>1210.087414675782</v>
+        <v>709.1532345052515</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>709.1532345052515</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>709.1532345052515</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>291.1894264034383</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
@@ -5059,10 +5059,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
@@ -5071,7 +5071,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
         <v>2169.72394915887</v>
@@ -5080,13 +5080,13 @@
         <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>1583.553172936862</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X11" t="n">
-        <v>1210.087414675782</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y11" t="n">
-        <v>1210.087414675782</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5138,25 +5138,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5229,22 +5229,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>343.3601518573251</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.959449965771</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9969330253591</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
@@ -5296,34 +5296,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2485.726393183546</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.091726155609</v>
       </c>
       <c r="U14" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.091726155609</v>
       </c>
       <c r="V14" t="n">
-        <v>2247.308246834948</v>
+        <v>1936.028838812038</v>
       </c>
       <c r="W14" t="n">
-        <v>1894.539591564834</v>
+        <v>1583.260183541924</v>
       </c>
       <c r="X14" t="n">
-        <v>1521.073833303755</v>
+        <v>1209.794425280844</v>
       </c>
       <c r="Y14" t="n">
-        <v>1166.959449965771</v>
+        <v>1209.794425280844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5369,31 +5369,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5402,7 +5402,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C16" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D16" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5466,22 +5466,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1525.74665604171</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C17" t="n">
-        <v>1156.784139101298</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D17" t="n">
-        <v>798.5184404945476</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E17" t="n">
-        <v>412.7301878963033</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>412.7301878963033</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>1980.526888652772</v>
       </c>
       <c r="W17" t="n">
-        <v>2289.351746278601</v>
+        <v>1627.758233382657</v>
       </c>
       <c r="X17" t="n">
-        <v>1915.885988017521</v>
+        <v>1627.758233382657</v>
       </c>
       <c r="Y17" t="n">
-        <v>1525.74665604171</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5600,37 +5600,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5679,31 +5679,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
         <v>598.0446400632119</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1228.366061714959</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117852</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>947.5870540873382</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>536.6011492977307</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>118.6373411959175</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V20" t="n">
-        <v>1971.274048960885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W20" t="n">
-        <v>1618.50539369077</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X20" t="n">
-        <v>1618.50539369077</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y20" t="n">
-        <v>1228.366061714959</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5858,16 +5858,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C22" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D22" t="n">
         <v>201.8560754027576</v>
@@ -5940,22 +5940,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>641.3898848520539</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>641.3898848520539</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="V22" t="n">
-        <v>641.3898848520539</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="W22" t="n">
-        <v>351.9727148150933</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="X22" t="n">
-        <v>351.9727148150933</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y22" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>882.8926947117852</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C23" t="n">
-        <v>882.8926947117852</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2112.324418312743</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W23" t="n">
-        <v>1759.555763042629</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X23" t="n">
-        <v>1659.631866751719</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y23" t="n">
-        <v>1269.492534775907</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6077,34 +6077,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>711.0426784987656</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>711.0426784987656</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>711.0426784987656</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>421.6255084618049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>421.6255084618049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1494.154169929768</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C26" t="n">
-        <v>1125.191652989356</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D26" t="n">
-        <v>766.9259543826058</v>
+        <v>951.4492202526055</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2606.988423525084</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2606.988423525084</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U26" t="n">
-        <v>2606.988423525084</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V26" t="n">
-        <v>2606.988423525084</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>2254.219768254969</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1880.75400999389</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y26" t="n">
-        <v>1880.75400999389</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="C28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="D28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>638.1631929376285</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V28" t="n">
-        <v>638.1631929376285</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240417</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1157.367208492925</v>
+        <v>1321.530002831497</v>
       </c>
       <c r="C29" t="n">
-        <v>1157.367208492925</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D29" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E29" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6499,16 +6499,16 @@
         <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>1896.735703827161</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>1543.967048557047</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X29" t="n">
-        <v>1543.967048557047</v>
+        <v>1708.129842895619</v>
       </c>
       <c r="Y29" t="n">
-        <v>1543.967048557047</v>
+        <v>1708.129842895619</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6545,40 +6545,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>224.4233909876363</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C31" t="n">
-        <v>224.4233909876363</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D31" t="n">
-        <v>224.4233909876363</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E31" t="n">
-        <v>76.51029740524319</v>
+        <v>140.6820811747448</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>140.6820811747448</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>140.6820811747448</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>224.4233909876363</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>224.4233909876363</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.4233909876363</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1168.064026826587</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C32" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D32" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6706,7 +6706,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.921096014692</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>1168.064026826587</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y32" t="n">
-        <v>1168.064026826587</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="33">
@@ -6791,13 +6791,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>507.3364050629041</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C34" t="n">
-        <v>338.4002221349972</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D34" t="n">
-        <v>338.4002221349972</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E34" t="n">
-        <v>338.4002221349972</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>191.5102746370868</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6897,13 +6897,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y34" t="n">
-        <v>507.3364050629041</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1610.120910258947</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C35" t="n">
-        <v>1241.158393318536</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D35" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
         <v>471.9067899221776</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2386.860082298881</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2386.860082298881</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>2386.860082298881</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y35" t="n">
-        <v>1996.720750323069</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7037,22 +7037,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>638.1631929376285</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V37" t="n">
-        <v>638.1631929376285</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W37" t="n">
-        <v>348.7460229006679</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>882.8926947117852</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C38" t="n">
-        <v>882.8926947117852</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="D38" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2343.463409365404</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V38" t="n">
-        <v>2012.400522021833</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W38" t="n">
-        <v>1659.631866751719</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X38" t="n">
-        <v>1659.631866751719</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y38" t="n">
-        <v>1269.492534775907</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="39">
@@ -7256,13 +7256,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7274,7 +7274,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
         <v>2646.935720430048</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.18278114677892</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C40" t="n">
-        <v>91.18278114677892</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X40" t="n">
-        <v>272.8312459770186</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y40" t="n">
-        <v>272.8312459770186</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1422.14692331494</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C41" t="n">
         <v>1422.14692331494</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>2198.886095354873</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W41" t="n">
-        <v>2198.886095354873</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X41" t="n">
-        <v>2198.886095354873</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y41" t="n">
-        <v>1808.746763379062</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="42">
@@ -7493,13 +7493,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>190.2718927217162</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C43" t="n">
-        <v>190.2718927217162</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D43" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>706.7536903985465</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>479.4455030671483</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>190.2718927217162</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>190.2718927217162</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>190.2718927217162</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2718927217162</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.2718927217162</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1995.909162857192</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C44" t="n">
-        <v>1626.94664591678</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7660,7 +7660,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7681,19 +7681,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X44" t="n">
-        <v>2386.048494833003</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y44" t="n">
-        <v>1995.909162857192</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7739,31 +7739,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E46" t="n">
         <v>53.94298182036445</v>
@@ -7848,10 +7848,10 @@
         <v>184.0273259635867</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>136.5653954824674</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>136.8385818314783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>362.2743407998538</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>373.8491954283779</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>385.2788254813443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>136.5653954824675</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063436</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>188.5314933775169</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093849</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808121</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>134.2926466205232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>110.1203092595404</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>137.3676377111192</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>387.0290923607224</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311367</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313097</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281174</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.5415969993846</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.132250799777069</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>92.89079271141463</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611828</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816385</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481477</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>149.4414326714928</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138.1711093023382</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>126.6493342317215</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>6.781739002849008</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>22.15413322302935</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>205.3342072602022</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>90.83571695072735</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.4918077118137</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>331.5013407165255</v>
+        <v>352.8864698128427</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574613</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.9959047043867</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>20.68382749133787</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>100.2996914017152</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>67.9332040940474</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>240.9801088719753</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>96.68415872776012</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23469,13 +23469,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>130.3958356744437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>19.58564452745316</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>35.66469915144967</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>115.1383805067651</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
@@ -23706,19 +23706,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>382.5076087699727</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>314.8628813780689</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>83.3620382482288</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>23.25425843786581</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>259.8753569825596</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24180,10 +24180,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1633970972478</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>270.3793462150236</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>310.2299240810726</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>270.8064433504678</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24417,13 +24417,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>208.1196628074923</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>231.1061368094953</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>139.6350545655766</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541048</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24654,10 +24654,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>135.9689721019666</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>57.49389559174335</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>240.5051939479854</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24843,25 +24843,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>123.0794055939013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>70.29918048095863</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>346.4177784134396</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.6026021822448797</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,28 +25077,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>78.24366890293328</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>31.11818237049576</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>309.2728333501971</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>291.4928627704566</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25365,19 +25365,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>135.9689721019666</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>15.78235601226146</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>172.0020656044683</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>111.748071685062</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>78.00254480832001</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,10 +25602,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>279.8143285048605</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>164.6923551623817</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>59.30821556748147</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>190.9839980802101</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>223.7770919632448</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25921,16 +25921,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>116.2199130299138</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>17.6504619447791</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>460139.1927209572</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>460139.1927209569</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>476112.79446685</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26349,13 +26349,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85498.77860120923</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753563</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63988.37154589874</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847426</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16922.92270143587</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16922.92270143587</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16958.01308307726</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48577.10433863015</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="F5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="F5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26493,7 +26493,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20936.6743732277</v>
+        <v>-5950.619346661735</v>
       </c>
       <c r="C6" t="n">
-        <v>64562.10422798159</v>
+        <v>74818.812184886</v>
       </c>
       <c r="D6" t="n">
-        <v>46022.68383244464</v>
+        <v>74818.81218488597</v>
       </c>
       <c r="E6" t="n">
-        <v>-235469.5385490724</v>
+        <v>-255133.7025372569</v>
       </c>
       <c r="F6" t="n">
-        <v>172250.8991345019</v>
+        <v>177712.4715057392</v>
       </c>
       <c r="G6" t="n">
-        <v>172250.8991345019</v>
+        <v>177712.4715057393</v>
       </c>
       <c r="H6" t="n">
-        <v>172250.899134502</v>
+        <v>177712.4715057393</v>
       </c>
       <c r="I6" t="n">
-        <v>172250.8991345019</v>
+        <v>177712.4715057392</v>
       </c>
       <c r="J6" t="n">
-        <v>108262.5275886032</v>
+        <v>114652.528906633</v>
       </c>
       <c r="K6" t="n">
-        <v>172250.8991345019</v>
+        <v>177712.4715057393</v>
       </c>
       <c r="L6" t="n">
-        <v>167523.3360156545</v>
+        <v>177712.4715057393</v>
       </c>
       <c r="M6" t="n">
-        <v>69816.78144386687</v>
+        <v>69739.11083168109</v>
       </c>
       <c r="N6" t="n">
-        <v>172250.899134502</v>
+        <v>177712.4715057392</v>
       </c>
       <c r="O6" t="n">
-        <v>172250.899134502</v>
+        <v>177712.4715057392</v>
       </c>
       <c r="P6" t="n">
-        <v>172250.899134502</v>
+        <v>177712.4715057392</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242467</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
@@ -26752,7 +26752,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611425</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="F4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26813,7 +26813,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242467</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302971</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611425</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052446</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028888</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052446</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028888</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611425</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052446</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028888</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01476929806328629</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1512560737906307</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5693933635848452</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253525711498846</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.878710098517755</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.330706004122053</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.59335950855502</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.635322776677333</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.488460569060529</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.123843523123149</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.594918036231708</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9277519194679081</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3365553796171366</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06465260227203576</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001181543845062903</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007902271128861155</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07631930274452749</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2720738086033337</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578867</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.276043491891584</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.715797948395928</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.002255276817144</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.055249016097972</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.88015132424268</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.508987194773496</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.008717977782347</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4906339916673621</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.146781220310206</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03185169810273421</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0005198862584777078</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006624998659945432</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05890226081296943</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1992317778827227</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.468387405258142</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.769704389764569</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.984956618952251</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038498653576719</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013805476753286</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9364134469530145</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8012634742901271</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5547532968796125</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2978840306553645</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1154556584646853</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02830681245613047</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0003613635632697512</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367678</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.94748062488878</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035002</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760444</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324508</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841738</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544932</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679592</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318453</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00740128890429414</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104787</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246559</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750314</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688226</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523079</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210613</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605603</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523959</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467891</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994848</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259058</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166741</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471433</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988742</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.35056181584803</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150903</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131949</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.723223846075011</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815374</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>221.7606597741148</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>210.5691835920706</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>92.68955593933624</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>222.1425621546527</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>244.5627323611425</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>244.5627323611425</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>185.9973484203804</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.10423162760993</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>28.57498187926839</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>40.6223756154173</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>45.14597785598188</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>25.52154136099269</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>59.24503031028151</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516669</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>9.770660483716004</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025437</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35737,7 +35737,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36445,19 +36445,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,10 +37633,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,10 +37870,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
